--- a/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
+++ b/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93863.0245508698</v>
+        <v>94126.6333619172</v>
       </c>
       <c r="C2" t="n">
-        <v>86341.0267921588</v>
+        <v>86283.4469997641</v>
       </c>
       <c r="D2" t="n">
-        <v>83528.6130091301</v>
+        <v>83653.9668542351</v>
       </c>
       <c r="E2" t="n">
-        <v>101705.96023293</v>
+        <v>101527.447600489</v>
       </c>
       <c r="F2" t="n">
-        <v>104836.018949338</v>
+        <v>105358.62667813</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26181.0245508698</v>
+        <v>26444.6333619172</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81820.1033504656</v>
+        <v>82135.7545350011</v>
       </c>
       <c r="C3" t="n">
-        <v>73662.4465413113</v>
+        <v>73143.7852233567</v>
       </c>
       <c r="D3" t="n">
-        <v>68818.5771634017</v>
+        <v>68532.4170323055</v>
       </c>
       <c r="E3" t="n">
-        <v>89925.828537224</v>
+        <v>90626.729536992</v>
       </c>
       <c r="F3" t="n">
-        <v>93549.2501200004</v>
+        <v>95555.3919733481</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36887.1033504656</v>
+        <v>37202.7545350011</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>99954.7714707796</v>
+        <v>100282.54821746</v>
       </c>
       <c r="C4" t="n">
-        <v>90413.3170280516</v>
+        <v>91264.8814593932</v>
       </c>
       <c r="D4" t="n">
-        <v>85920.8464571431</v>
+        <v>86232.6402642955</v>
       </c>
       <c r="E4" t="n">
-        <v>108504.166481743</v>
+        <v>109086.606082285</v>
       </c>
       <c r="F4" t="n">
-        <v>112864.626234103</v>
+        <v>114185.942070722</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26527.7714707796</v>
+        <v>26855.5482174604</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94724.0382070254</v>
+        <v>94882.8679404773</v>
       </c>
       <c r="C5" t="n">
-        <v>83352.4078666228</v>
+        <v>84338.8895150277</v>
       </c>
       <c r="D5" t="n">
-        <v>78853.556080525</v>
+        <v>80235.7221817471</v>
       </c>
       <c r="E5" t="n">
-        <v>105189.782560796</v>
+        <v>105296.103229811</v>
       </c>
       <c r="F5" t="n">
-        <v>110205.250418835</v>
+        <v>108778.609037429</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9040.03820702538</v>
+        <v>9198.86794047734</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91458.4757873131</v>
+        <v>91642.3612769961</v>
       </c>
       <c r="C6" t="n">
-        <v>79713.876945114</v>
+        <v>80798.6245200379</v>
       </c>
       <c r="D6" t="n">
-        <v>73400.2446462761</v>
+        <v>74580.0214154216</v>
       </c>
       <c r="E6" t="n">
-        <v>103426.78228446</v>
+        <v>103833.324179861</v>
       </c>
       <c r="F6" t="n">
-        <v>108042.033487769</v>
+        <v>107816.553056107</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8073.47578731312</v>
+        <v>8257.36127699606</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88039.797409274</v>
+        <v>88318.6086171292</v>
       </c>
       <c r="C7" t="n">
-        <v>75340.8267549068</v>
+        <v>76434.4687972241</v>
       </c>
       <c r="D7" t="n">
-        <v>69804.8320538415</v>
+        <v>71221.672511926</v>
       </c>
       <c r="E7" t="n">
-        <v>100968.285167182</v>
+        <v>100435.719234253</v>
       </c>
       <c r="F7" t="n">
-        <v>106139.124981991</v>
+        <v>107912.643946163</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3087.79740927402</v>
+        <v>3366.60861712917</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85323.6614108218</v>
+        <v>85736.8924741673</v>
       </c>
       <c r="C8" t="n">
-        <v>71474.7784238648</v>
+        <v>72096.6507552082</v>
       </c>
       <c r="D8" t="n">
-        <v>64278.5415308874</v>
+        <v>64969.6313875255</v>
       </c>
       <c r="E8" t="n">
-        <v>99120.8124015991</v>
+        <v>98944.9155678001</v>
       </c>
       <c r="F8" t="n">
-        <v>104927.37405272</v>
+        <v>107143.269451649</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8900.66141082183</v>
+        <v>9313.89247416734</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82349.0582557994</v>
+        <v>82328.2159241958</v>
       </c>
       <c r="C9" t="n">
-        <v>68409.4996623415</v>
+        <v>68524.79923776</v>
       </c>
       <c r="D9" t="n">
-        <v>58873.9005498125</v>
+        <v>61373.9858411582</v>
       </c>
       <c r="E9" t="n">
-        <v>97768.8183423008</v>
+        <v>96511.0725567734</v>
       </c>
       <c r="F9" t="n">
-        <v>103009.517627355</v>
+        <v>104910.152766359</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-751.941744200565</v>
+        <v>-772.784075804215</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>77969.4218415564</v>
+        <v>78206.4551374285</v>
       </c>
       <c r="C10" t="n">
-        <v>61587.8272853556</v>
+        <v>63410.0534114394</v>
       </c>
       <c r="D10" t="n">
-        <v>53776.4215466629</v>
+        <v>54550.553200363</v>
       </c>
       <c r="E10" t="n">
-        <v>92850.4700018826</v>
+        <v>94024.7356255535</v>
       </c>
       <c r="F10" t="n">
-        <v>100752.523545996</v>
+        <v>106422.508165859</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2560.42184155638</v>
+        <v>2797.45513742846</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75132.7205663316</v>
+        <v>75349.8068302143</v>
       </c>
       <c r="C11" t="n">
-        <v>59753.4025184809</v>
+        <v>58874.2251043572</v>
       </c>
       <c r="D11" t="n">
-        <v>49793.6227160799</v>
+        <v>51773.1386464047</v>
       </c>
       <c r="E11" t="n">
-        <v>90675.5070782242</v>
+        <v>91888.5671896794</v>
       </c>
       <c r="F11" t="n">
-        <v>98294.3443049035</v>
+        <v>102156.140611118</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7289.7205663316</v>
+        <v>7506.80683021432</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72674.5090249535</v>
+        <v>72208.1866279989</v>
       </c>
       <c r="C12" t="n">
-        <v>55867.6755451986</v>
+        <v>56108.5649356638</v>
       </c>
       <c r="D12" t="n">
-        <v>47704.2530173654</v>
+        <v>47539.9524888885</v>
       </c>
       <c r="E12" t="n">
-        <v>88330.1754961487</v>
+        <v>89002.6796495548</v>
       </c>
       <c r="F12" t="n">
-        <v>97627.7064419218</v>
+        <v>99906.8465141277</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>3034.50902495351</v>
+        <v>2568.18662799892</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70285.750604913</v>
+        <v>70086.6398774656</v>
       </c>
       <c r="C13" t="n">
-        <v>53340.8593487551</v>
+        <v>52304.7744308907</v>
       </c>
       <c r="D13" t="n">
-        <v>43803.2662043033</v>
+        <v>44905.2953468383</v>
       </c>
       <c r="E13" t="n">
-        <v>86291.5818001459</v>
+        <v>88070.410284489</v>
       </c>
       <c r="F13" t="n">
-        <v>94123.283854025</v>
+        <v>98142.4717087659</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6188.750604913</v>
+        <v>5989.63987746564</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92730.4176514165</v>
+        <v>92444.6092073688</v>
       </c>
       <c r="C14" t="n">
-        <v>73522.3291356971</v>
+        <v>74670.0588767653</v>
       </c>
       <c r="D14" t="n">
-        <v>61777.3568183615</v>
+        <v>66167.1218889161</v>
       </c>
       <c r="E14" t="n">
-        <v>109865.034415385</v>
+        <v>112530.457483266</v>
       </c>
       <c r="F14" t="n">
-        <v>119254.888714</v>
+        <v>123400.158172633</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27917.4176514165</v>
+        <v>27631.6092073688</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>81138.6794879632</v>
+        <v>80376.3226025722</v>
       </c>
       <c r="C15" t="n">
-        <v>62244.8195462041</v>
+        <v>61327.2459069836</v>
       </c>
       <c r="D15" t="n">
-        <v>51784.5199116629</v>
+        <v>53993.8446882359</v>
       </c>
       <c r="E15" t="n">
-        <v>98305.543869294</v>
+        <v>100519.704819232</v>
       </c>
       <c r="F15" t="n">
-        <v>107761.824408003</v>
+        <v>109806.36848939</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25713.6794879632</v>
+        <v>24951.3226025722</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98587.1689962013</v>
+        <v>98914.700409126</v>
       </c>
       <c r="C16" t="n">
-        <v>78272.9975330175</v>
+        <v>80144.3325172336</v>
       </c>
       <c r="D16" t="n">
-        <v>68842.9502305978</v>
+        <v>71089.4826722367</v>
       </c>
       <c r="E16" t="n">
-        <v>115629.342543959</v>
+        <v>118610.896182102</v>
       </c>
       <c r="F16" t="n">
-        <v>125423.598337576</v>
+        <v>133038.579986154</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>17784.1689962013</v>
+        <v>18111.700409126</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93445.7851707715</v>
+        <v>93241.6350275232</v>
       </c>
       <c r="C17" t="n">
-        <v>72096.5644565376</v>
+        <v>73201.04059539</v>
       </c>
       <c r="D17" t="n">
-        <v>63217.9410240858</v>
+        <v>62476.29968825</v>
       </c>
       <c r="E17" t="n">
-        <v>111530.508549857</v>
+        <v>113734.950493434</v>
       </c>
       <c r="F17" t="n">
-        <v>121311.523812942</v>
+        <v>131107.825913818</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>12897.7851707715</v>
+        <v>12693.6350275232</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90267.1981671197</v>
+        <v>90504.1756962082</v>
       </c>
       <c r="C18" t="n">
-        <v>68611.0862675212</v>
+        <v>69770.7447131557</v>
       </c>
       <c r="D18" t="n">
-        <v>58400.0785975946</v>
+        <v>58764.3637688342</v>
       </c>
       <c r="E18" t="n">
-        <v>108076.64514336</v>
+        <v>110758.792306912</v>
       </c>
       <c r="F18" t="n">
-        <v>120176.717438091</v>
+        <v>124586.466686865</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15024.1981671197</v>
+        <v>15261.1756962082</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>86864.0075346907</v>
+        <v>86547.0328941307</v>
       </c>
       <c r="C19" t="n">
-        <v>67600.9272484486</v>
+        <v>65159.6772520257</v>
       </c>
       <c r="D19" t="n">
-        <v>51437.9276126717</v>
+        <v>55659.8016966124</v>
       </c>
       <c r="E19" t="n">
-        <v>105400.058061434</v>
+        <v>108297.937541505</v>
       </c>
       <c r="F19" t="n">
-        <v>115911.332131257</v>
+        <v>121074.141253827</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>12980.0075346907</v>
+        <v>12663.0328941307</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84393.1280698483</v>
+        <v>84308.0141608595</v>
       </c>
       <c r="C20" t="n">
-        <v>63792.9900042519</v>
+        <v>61616.8324207808</v>
       </c>
       <c r="D20" t="n">
-        <v>49853.1230677302</v>
+        <v>48166.7655572547</v>
       </c>
       <c r="E20" t="n">
-        <v>104093.221598416</v>
+        <v>108506.924292088</v>
       </c>
       <c r="F20" t="n">
-        <v>112026.708283209</v>
+        <v>117159.882480651</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7745.12806984826</v>
+        <v>7660.01416085954</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81657.3582246065</v>
+        <v>81524.7311930429</v>
       </c>
       <c r="C21" t="n">
-        <v>59249.6384350133</v>
+        <v>59108.8371192078</v>
       </c>
       <c r="D21" t="n">
-        <v>44858.1982986344</v>
+        <v>46094.2894158664</v>
       </c>
       <c r="E21" t="n">
-        <v>101717.009727366</v>
+        <v>103930.547093471</v>
       </c>
       <c r="F21" t="n">
-        <v>112025.146531059</v>
+        <v>115064.390234285</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13691.3582246065</v>
+        <v>13558.7311930429</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77505.8797626273</v>
+        <v>77080.4997481791</v>
       </c>
       <c r="C22" t="n">
-        <v>54714.3443144379</v>
+        <v>54262.9584711962</v>
       </c>
       <c r="D22" t="n">
-        <v>41233.4829860281</v>
+        <v>40285.5436240537</v>
       </c>
       <c r="E22" t="n">
-        <v>98082.647958932</v>
+        <v>100953.902088729</v>
       </c>
       <c r="F22" t="n">
-        <v>108782.165935499</v>
+        <v>116206.873963359</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9693.87976262727</v>
+        <v>9268.49974817909</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74341.0654786281</v>
+        <v>74141.6658630903</v>
       </c>
       <c r="C23" t="n">
-        <v>53102.0456387664</v>
+        <v>51801.4451122653</v>
       </c>
       <c r="D23" t="n">
-        <v>39157.5211890054</v>
+        <v>38715.3178392277</v>
       </c>
       <c r="E23" t="n">
-        <v>97914.5337229077</v>
+        <v>99369.9154524261</v>
       </c>
       <c r="F23" t="n">
-        <v>106679.985740842</v>
+        <v>112507.938888856</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12950.0654786281</v>
+        <v>12750.6658630903</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71934.0142367992</v>
+        <v>71608.3177781109</v>
       </c>
       <c r="C24" t="n">
-        <v>46925.0182456726</v>
+        <v>47334.7406394919</v>
       </c>
       <c r="D24" t="n">
-        <v>35722.6141435567</v>
+        <v>38244.0555652841</v>
       </c>
       <c r="E24" t="n">
-        <v>94596.4901643811</v>
+        <v>96771.0369316385</v>
       </c>
       <c r="F24" t="n">
-        <v>108655.463419467</v>
+        <v>108106.286076195</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>10181.0142367992</v>
+        <v>9855.31777811091</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69338.1601509697</v>
+        <v>69003.1110567775</v>
       </c>
       <c r="C25" t="n">
-        <v>45564.9312997597</v>
+        <v>43554.6322756115</v>
       </c>
       <c r="D25" t="n">
-        <v>31541.4828613175</v>
+        <v>32733.9616716995</v>
       </c>
       <c r="E25" t="n">
-        <v>92003.2780837111</v>
+        <v>93209.5382446217</v>
       </c>
       <c r="F25" t="n">
-        <v>106712.048958056</v>
+        <v>108196.629820473</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7550.16015096966</v>
+        <v>7215.11105677749</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91612.7610923532</v>
+        <v>91117.3208119342</v>
       </c>
       <c r="C26" t="n">
-        <v>67636.3662929344</v>
+        <v>65752.6140772958</v>
       </c>
       <c r="D26" t="n">
-        <v>47587.5103944627</v>
+        <v>53161.8151562483</v>
       </c>
       <c r="E26" t="n">
-        <v>114917.136615816</v>
+        <v>117011.246117673</v>
       </c>
       <c r="F26" t="n">
-        <v>128783.636755978</v>
+        <v>131530.425704813</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>29915.7610923532</v>
+        <v>29420.3208119342</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79814.7767358634</v>
+        <v>79282.1265108613</v>
       </c>
       <c r="C27" t="n">
-        <v>55338.8067359251</v>
+        <v>52236.0983099761</v>
       </c>
       <c r="D27" t="n">
-        <v>37354.1975563243</v>
+        <v>39683.9025008725</v>
       </c>
       <c r="E27" t="n">
-        <v>103839.345733258</v>
+        <v>106419.595034446</v>
       </c>
       <c r="F27" t="n">
-        <v>119211.421500204</v>
+        <v>119530.914551388</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27218.7767358634</v>
+        <v>26686.1265108613</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98533.3832180654</v>
+        <v>97339.0078251793</v>
       </c>
       <c r="C28" t="n">
-        <v>73502.5132021422</v>
+        <v>71419.1250609852</v>
       </c>
       <c r="D28" t="n">
-        <v>55470.0679673569</v>
+        <v>55352.2324768563</v>
       </c>
       <c r="E28" t="n">
-        <v>123275.841047635</v>
+        <v>123213.03878342</v>
       </c>
       <c r="F28" t="n">
-        <v>140337.91013985</v>
+        <v>135529.570430072</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>25423.3832180654</v>
+        <v>24229.0078251793</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93020.7950889821</v>
+        <v>92055.9213985198</v>
       </c>
       <c r="C29" t="n">
-        <v>66537.9930964428</v>
+        <v>63980.9168143257</v>
       </c>
       <c r="D29" t="n">
-        <v>49798.4123004231</v>
+        <v>52862.9744567943</v>
       </c>
       <c r="E29" t="n">
-        <v>117253.16512019</v>
+        <v>118597.29652158</v>
       </c>
       <c r="F29" t="n">
-        <v>135805.119770722</v>
+        <v>134790.479396746</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>31835.7950889821</v>
+        <v>30870.9213985198</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90112.5772280246</v>
+        <v>89148.0953764851</v>
       </c>
       <c r="C30" t="n">
-        <v>63785.4899606424</v>
+        <v>61479.690155215</v>
       </c>
       <c r="D30" t="n">
-        <v>47751.9533688288</v>
+        <v>47011.351515595</v>
       </c>
       <c r="E30" t="n">
-        <v>115372.398352464</v>
+        <v>115125.39501185</v>
       </c>
       <c r="F30" t="n">
-        <v>134926.216371579</v>
+        <v>129272.882933475</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26522.5772280246</v>
+        <v>25558.0953764851</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86513.1994988571</v>
+        <v>85768.6166975478</v>
       </c>
       <c r="C31" t="n">
-        <v>59025.782398365</v>
+        <v>56673.6155102321</v>
       </c>
       <c r="D31" t="n">
-        <v>41287.2847204423</v>
+        <v>43304.9344552433</v>
       </c>
       <c r="E31" t="n">
-        <v>112826.911754093</v>
+        <v>113465.620001838</v>
       </c>
       <c r="F31" t="n">
-        <v>134425.124226266</v>
+        <v>125429.80165434</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18612.1994988571</v>
+        <v>17867.6166975478</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84046.505746813</v>
+        <v>83426.7847091192</v>
       </c>
       <c r="C32" t="n">
-        <v>54917.3417857061</v>
+        <v>54797.8333441521</v>
       </c>
       <c r="D32" t="n">
-        <v>39783.1699450476</v>
+        <v>40935.6135667598</v>
       </c>
       <c r="E32" t="n">
-        <v>109151.813368658</v>
+        <v>112269.628625474</v>
       </c>
       <c r="F32" t="n">
-        <v>132471.144211167</v>
+        <v>128171.675391793</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>12624.505746813</v>
+        <v>12004.7847091192</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81357.4776408276</v>
+        <v>79952.7308485209</v>
       </c>
       <c r="C33" t="n">
-        <v>52528.5962118886</v>
+        <v>49288.6997113141</v>
       </c>
       <c r="D33" t="n">
-        <v>34418.5638435813</v>
+        <v>39452.4151940402</v>
       </c>
       <c r="E33" t="n">
-        <v>111240.259043647</v>
+        <v>107674.962975135</v>
       </c>
       <c r="F33" t="n">
-        <v>131230.783607234</v>
+        <v>123487.161073282</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12338.4776408276</v>
+        <v>10933.7308485209</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>76910.122641628</v>
+        <v>76359.0991193623</v>
       </c>
       <c r="C34" t="n">
-        <v>46728.9404742902</v>
+        <v>46951.8621979406</v>
       </c>
       <c r="D34" t="n">
-        <v>29318.722975108</v>
+        <v>32800.5282015469</v>
       </c>
       <c r="E34" t="n">
-        <v>105435.542756753</v>
+        <v>106102.684806842</v>
       </c>
       <c r="F34" t="n">
-        <v>125672.413989028</v>
+        <v>118977.607854656</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18272.122641628</v>
+        <v>17721.0991193623</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73503.1106036075</v>
+        <v>72641.0653726219</v>
       </c>
       <c r="C35" t="n">
-        <v>41173.2284309082</v>
+        <v>41659.21026588</v>
       </c>
       <c r="D35" t="n">
-        <v>23501.7192364299</v>
+        <v>27578.2276735725</v>
       </c>
       <c r="E35" t="n">
-        <v>103376.905315079</v>
+        <v>101643.278850214</v>
       </c>
       <c r="F35" t="n">
-        <v>126757.661568115</v>
+        <v>119732.954514303</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>22378.1106036075</v>
+        <v>21516.0653726219</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>70831.043279567</v>
+        <v>70783.0414970982</v>
       </c>
       <c r="C36" t="n">
-        <v>40300.1899357438</v>
+        <v>38701.2052368978</v>
       </c>
       <c r="D36" t="n">
-        <v>21884.1929049334</v>
+        <v>25161.6554127903</v>
       </c>
       <c r="E36" t="n">
-        <v>100104.111461903</v>
+        <v>101491.500855708</v>
       </c>
       <c r="F36" t="n">
-        <v>126923.940991705</v>
+        <v>117630.554249768</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22479.043279567</v>
+        <v>22431.0414970982</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>68674.3181004924</v>
+        <v>67972.0370005509</v>
       </c>
       <c r="C37" t="n">
-        <v>35424.5521006769</v>
+        <v>36696.6159670047</v>
       </c>
       <c r="D37" t="n">
-        <v>21052.9377374527</v>
+        <v>23155.2629880649</v>
       </c>
       <c r="E37" t="n">
-        <v>98789.5028123324</v>
+        <v>99058.8047936951</v>
       </c>
       <c r="F37" t="n">
-        <v>124536.063884853</v>
+        <v>115855.008117309</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>34723.3181004924</v>
+        <v>34021.0370005509</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>90935.7804750968</v>
+        <v>90396.1397914819</v>
       </c>
       <c r="C38" t="n">
-        <v>59677.9350532145</v>
+        <v>59001.1786173119</v>
       </c>
       <c r="D38" t="n">
-        <v>37717.5033344313</v>
+        <v>43958.943867035</v>
       </c>
       <c r="E38" t="n">
-        <v>123702.95394264</v>
+        <v>124318.18526531</v>
       </c>
       <c r="F38" t="n">
-        <v>145480.647627053</v>
+        <v>139805.576072741</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>37205.7804750968</v>
+        <v>36666.1397914819</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>78892.2224945815</v>
+        <v>78920.855366615</v>
       </c>
       <c r="C39" t="n">
-        <v>47291.7254500229</v>
+        <v>47343.6588654688</v>
       </c>
       <c r="D39" t="n">
-        <v>22811.3996284658</v>
+        <v>32454.7371821798</v>
       </c>
       <c r="E39" t="n">
-        <v>110184.73354702</v>
+        <v>113509.818249032</v>
       </c>
       <c r="F39" t="n">
-        <v>137400.861446823</v>
+        <v>128238.208203658</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>7051.22249458153</v>
+        <v>7079.85536661501</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>97889.2151409261</v>
+        <v>97112.0437126164</v>
       </c>
       <c r="C40" t="n">
-        <v>63493.2554734787</v>
+        <v>64923.4464473845</v>
       </c>
       <c r="D40" t="n">
-        <v>43756.4431161011</v>
+        <v>50009.6595325405</v>
       </c>
       <c r="E40" t="n">
-        <v>130680.658614735</v>
+        <v>131285.811640524</v>
       </c>
       <c r="F40" t="n">
-        <v>155348.546440695</v>
+        <v>147789.875915538</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>21558.2151409261</v>
+        <v>20781.0437126164</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
+++ b/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>94126.6333619172</v>
+        <v>94169.206539771</v>
       </c>
       <c r="C2" t="n">
-        <v>86283.4469997641</v>
+        <v>86575.8494589335</v>
       </c>
       <c r="D2" t="n">
-        <v>83653.9668542351</v>
+        <v>82646.995715896</v>
       </c>
       <c r="E2" t="n">
-        <v>101527.447600489</v>
+        <v>101539.126796234</v>
       </c>
       <c r="F2" t="n">
-        <v>105358.62667813</v>
+        <v>104552.380265555</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26444.6333619172</v>
+        <v>26487.206539771</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>82135.7545350011</v>
+        <v>81502.4222950852</v>
       </c>
       <c r="C3" t="n">
-        <v>73143.7852233567</v>
+        <v>73855.0700237609</v>
       </c>
       <c r="D3" t="n">
-        <v>68532.4170323055</v>
+        <v>68755.4057970404</v>
       </c>
       <c r="E3" t="n">
-        <v>90626.729536992</v>
+        <v>89551.9434258162</v>
       </c>
       <c r="F3" t="n">
-        <v>95555.3919733481</v>
+        <v>95230.7904593854</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>37202.7545350011</v>
+        <v>36569.4222950852</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100282.54821746</v>
+        <v>100341.200424031</v>
       </c>
       <c r="C4" t="n">
-        <v>91264.8814593932</v>
+        <v>89937.4238158898</v>
       </c>
       <c r="D4" t="n">
-        <v>86232.6402642955</v>
+        <v>85301.6851800015</v>
       </c>
       <c r="E4" t="n">
-        <v>109086.606082285</v>
+        <v>109266.509768669</v>
       </c>
       <c r="F4" t="n">
-        <v>114185.942070722</v>
+        <v>114529.499975804</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26855.5482174604</v>
+        <v>26914.2004240314</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94882.8679404773</v>
+        <v>94292.213860933</v>
       </c>
       <c r="C5" t="n">
-        <v>84338.8895150277</v>
+        <v>82929.9555870029</v>
       </c>
       <c r="D5" t="n">
-        <v>80235.7221817471</v>
+        <v>77468.4117894851</v>
       </c>
       <c r="E5" t="n">
-        <v>105296.103229811</v>
+        <v>105220.094757428</v>
       </c>
       <c r="F5" t="n">
-        <v>108778.609037429</v>
+        <v>109597.626651589</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9198.86794047734</v>
+        <v>8608.21386093297</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91642.3612769961</v>
+        <v>90914.6926232813</v>
       </c>
       <c r="C6" t="n">
-        <v>80798.6245200379</v>
+        <v>79337.3919127753</v>
       </c>
       <c r="D6" t="n">
-        <v>74580.0214154216</v>
+        <v>72987.7197074019</v>
       </c>
       <c r="E6" t="n">
-        <v>103833.324179861</v>
+        <v>102275.565127018</v>
       </c>
       <c r="F6" t="n">
-        <v>107816.553056107</v>
+        <v>110196.21897012</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8257.36127699606</v>
+        <v>7529.6926232813</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88318.6086171292</v>
+        <v>87194.3429176357</v>
       </c>
       <c r="C7" t="n">
-        <v>76434.4687972241</v>
+        <v>75274.8640220322</v>
       </c>
       <c r="D7" t="n">
-        <v>71221.672511926</v>
+        <v>68969.3813006949</v>
       </c>
       <c r="E7" t="n">
-        <v>100435.719234253</v>
+        <v>99830.0045075614</v>
       </c>
       <c r="F7" t="n">
-        <v>107912.643946163</v>
+        <v>105754.27190588</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3366.60861712917</v>
+        <v>2242.34291763573</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85736.8924741673</v>
+        <v>84596.0975072202</v>
       </c>
       <c r="C8" t="n">
-        <v>72096.6507552082</v>
+        <v>71584.7956359785</v>
       </c>
       <c r="D8" t="n">
-        <v>64969.6313875255</v>
+        <v>65431.7587436494</v>
       </c>
       <c r="E8" t="n">
-        <v>98944.9155678001</v>
+        <v>98329.1667907056</v>
       </c>
       <c r="F8" t="n">
-        <v>107143.269451649</v>
+        <v>106921.631262911</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9313.89247416734</v>
+        <v>8173.09750722023</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82328.2159241958</v>
+        <v>82090.6662702867</v>
       </c>
       <c r="C9" t="n">
-        <v>68524.79923776</v>
+        <v>68098.5745420131</v>
       </c>
       <c r="D9" t="n">
-        <v>61373.9858411582</v>
+        <v>61474.2441232961</v>
       </c>
       <c r="E9" t="n">
-        <v>96511.0725567734</v>
+        <v>96231.3411560098</v>
       </c>
       <c r="F9" t="n">
-        <v>104910.152766359</v>
+        <v>102208.547364614</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-772.784075804215</v>
+        <v>-1010.33372971325</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78206.4551374285</v>
+        <v>78088.1972351499</v>
       </c>
       <c r="C10" t="n">
-        <v>63410.0534114394</v>
+        <v>63978.4297663815</v>
       </c>
       <c r="D10" t="n">
-        <v>54550.553200363</v>
+        <v>55791.5438453358</v>
       </c>
       <c r="E10" t="n">
-        <v>94024.7356255535</v>
+        <v>92603.8602069046</v>
       </c>
       <c r="F10" t="n">
-        <v>106422.508165859</v>
+        <v>100955.98348955</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2797.45513742846</v>
+        <v>2679.19723514988</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75349.8068302143</v>
+        <v>75229.5012204689</v>
       </c>
       <c r="C11" t="n">
-        <v>58874.2251043572</v>
+        <v>60296.9208958873</v>
       </c>
       <c r="D11" t="n">
-        <v>51773.1386464047</v>
+        <v>50715.4208912657</v>
       </c>
       <c r="E11" t="n">
-        <v>91888.5671896794</v>
+        <v>91248.5120511308</v>
       </c>
       <c r="F11" t="n">
-        <v>102156.140611118</v>
+        <v>98615.8896940065</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7506.80683021432</v>
+        <v>7386.50122046894</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72208.1866279989</v>
+        <v>72482.0658333244</v>
       </c>
       <c r="C12" t="n">
-        <v>56108.5649356638</v>
+        <v>54440.1320229663</v>
       </c>
       <c r="D12" t="n">
-        <v>47539.9524888885</v>
+        <v>48155.4000512546</v>
       </c>
       <c r="E12" t="n">
-        <v>89002.6796495548</v>
+        <v>90043.0631119608</v>
       </c>
       <c r="F12" t="n">
-        <v>99906.8465141277</v>
+        <v>98203.8629235227</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2568.18662799892</v>
+        <v>2842.06583332441</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70086.6398774656</v>
+        <v>70132.7886048567</v>
       </c>
       <c r="C13" t="n">
-        <v>52304.7744308907</v>
+        <v>51228.6891019286</v>
       </c>
       <c r="D13" t="n">
-        <v>44905.2953468383</v>
+        <v>44790.3135336736</v>
       </c>
       <c r="E13" t="n">
-        <v>88070.410284489</v>
+        <v>87675.6901894524</v>
       </c>
       <c r="F13" t="n">
-        <v>98142.4717087659</v>
+        <v>96322.3769038241</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>5989.63987746564</v>
+        <v>6035.78860485672</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92444.6092073688</v>
+        <v>92606.3563912145</v>
       </c>
       <c r="C14" t="n">
-        <v>74670.0588767653</v>
+        <v>72221.1487452917</v>
       </c>
       <c r="D14" t="n">
-        <v>66167.1218889161</v>
+        <v>62743.058587124</v>
       </c>
       <c r="E14" t="n">
-        <v>112530.457483266</v>
+        <v>112158.322489336</v>
       </c>
       <c r="F14" t="n">
-        <v>123400.158172633</v>
+        <v>121381.150601612</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27631.6092073688</v>
+        <v>27793.3563912145</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80376.3226025722</v>
+        <v>80979.7685447417</v>
       </c>
       <c r="C15" t="n">
-        <v>61327.2459069836</v>
+        <v>62150.5207417266</v>
       </c>
       <c r="D15" t="n">
-        <v>53993.8446882359</v>
+        <v>52730.4476363366</v>
       </c>
       <c r="E15" t="n">
-        <v>100519.704819232</v>
+        <v>101999.542605945</v>
       </c>
       <c r="F15" t="n">
-        <v>109806.36848939</v>
+        <v>110539.539211499</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>24951.3226025722</v>
+        <v>25554.7685447417</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98914.700409126</v>
+        <v>99664.8153159879</v>
       </c>
       <c r="C16" t="n">
-        <v>80144.3325172336</v>
+        <v>79285.4306545822</v>
       </c>
       <c r="D16" t="n">
-        <v>71089.4826722367</v>
+        <v>69627.2926292613</v>
       </c>
       <c r="E16" t="n">
-        <v>118610.896182102</v>
+        <v>120987.046212424</v>
       </c>
       <c r="F16" t="n">
-        <v>133038.579986154</v>
+        <v>131479.831837</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18111.700409126</v>
+        <v>18861.8153159879</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93241.6350275232</v>
+        <v>93912.5510892634</v>
       </c>
       <c r="C17" t="n">
-        <v>73201.04059539</v>
+        <v>74113.8506289322</v>
       </c>
       <c r="D17" t="n">
-        <v>62476.29968825</v>
+        <v>61302.2933896011</v>
       </c>
       <c r="E17" t="n">
-        <v>113734.950493434</v>
+        <v>116692.061067415</v>
       </c>
       <c r="F17" t="n">
-        <v>131107.825913818</v>
+        <v>126476.608433394</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>12693.6350275232</v>
+        <v>13364.5510892634</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90504.1756962082</v>
+        <v>90966.7727511277</v>
       </c>
       <c r="C18" t="n">
-        <v>69770.7447131557</v>
+        <v>69814.3210531374</v>
       </c>
       <c r="D18" t="n">
-        <v>58764.3637688342</v>
+        <v>59160.9351810331</v>
       </c>
       <c r="E18" t="n">
-        <v>110758.792306912</v>
+        <v>113304.48882259</v>
       </c>
       <c r="F18" t="n">
-        <v>124586.466686865</v>
+        <v>126964.252515741</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15261.1756962082</v>
+        <v>15723.7727511277</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>86547.0328941307</v>
+        <v>87343.7134803147</v>
       </c>
       <c r="C19" t="n">
-        <v>65159.6772520257</v>
+        <v>65641.1882812946</v>
       </c>
       <c r="D19" t="n">
-        <v>55659.8016966124</v>
+        <v>53070.2529218728</v>
       </c>
       <c r="E19" t="n">
-        <v>108297.937541505</v>
+        <v>112422.061098824</v>
       </c>
       <c r="F19" t="n">
-        <v>121074.141253827</v>
+        <v>122484.27462114</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>12663.0328941307</v>
+        <v>13459.7134803147</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84308.0141608595</v>
+        <v>84514.6443866428</v>
       </c>
       <c r="C20" t="n">
-        <v>61616.8324207808</v>
+        <v>61657.4048233399</v>
       </c>
       <c r="D20" t="n">
-        <v>48166.7655572547</v>
+        <v>50753.1398218504</v>
       </c>
       <c r="E20" t="n">
-        <v>108506.924292088</v>
+        <v>108922.661081163</v>
       </c>
       <c r="F20" t="n">
-        <v>117159.882480651</v>
+        <v>121611.134023098</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7660.01416085954</v>
+        <v>7866.64438664283</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81524.7311930429</v>
+        <v>81961.5459286717</v>
       </c>
       <c r="C21" t="n">
-        <v>59108.8371192078</v>
+        <v>59116.7260281505</v>
       </c>
       <c r="D21" t="n">
-        <v>46094.2894158664</v>
+        <v>45843.3404902397</v>
       </c>
       <c r="E21" t="n">
-        <v>103930.547093471</v>
+        <v>107779.457158313</v>
       </c>
       <c r="F21" t="n">
-        <v>115064.390234285</v>
+        <v>120108.116956936</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13558.7311930429</v>
+        <v>13995.5459286717</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77080.4997481791</v>
+        <v>77531.4638628401</v>
       </c>
       <c r="C22" t="n">
-        <v>54262.9584711962</v>
+        <v>54000.8475105133</v>
       </c>
       <c r="D22" t="n">
-        <v>40285.5436240537</v>
+        <v>40371.1553574818</v>
       </c>
       <c r="E22" t="n">
-        <v>100953.902088729</v>
+        <v>103076.708947828</v>
       </c>
       <c r="F22" t="n">
-        <v>116206.873963359</v>
+        <v>116379.573479848</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9268.49974817909</v>
+        <v>9719.4638628401</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74141.6658630903</v>
+        <v>74078.6854034046</v>
       </c>
       <c r="C23" t="n">
-        <v>51801.4451122653</v>
+        <v>49763.5045626828</v>
       </c>
       <c r="D23" t="n">
-        <v>38715.3178392277</v>
+        <v>36635.7855567637</v>
       </c>
       <c r="E23" t="n">
-        <v>99369.9154524261</v>
+        <v>99526.8855234992</v>
       </c>
       <c r="F23" t="n">
-        <v>112507.938888856</v>
+        <v>115308.55257311</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12750.6658630903</v>
+        <v>12687.6854034046</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71608.3177781109</v>
+        <v>71664.092611088</v>
       </c>
       <c r="C24" t="n">
-        <v>47334.7406394919</v>
+        <v>46747.8391881376</v>
       </c>
       <c r="D24" t="n">
-        <v>38244.0555652841</v>
+        <v>36112.7354613216</v>
       </c>
       <c r="E24" t="n">
-        <v>96771.0369316385</v>
+        <v>97645.2934256134</v>
       </c>
       <c r="F24" t="n">
-        <v>108106.286076195</v>
+        <v>114480.250151071</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9855.31777811091</v>
+        <v>9911.092611088</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69003.1110567775</v>
+        <v>68791.111274569</v>
       </c>
       <c r="C25" t="n">
-        <v>43554.6322756115</v>
+        <v>44007.1417649282</v>
       </c>
       <c r="D25" t="n">
-        <v>32733.9616716995</v>
+        <v>31385.9404506525</v>
       </c>
       <c r="E25" t="n">
-        <v>93209.5382446217</v>
+        <v>95127.4804464312</v>
       </c>
       <c r="F25" t="n">
-        <v>108196.629820473</v>
+        <v>110955.281841863</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7215.11105677749</v>
+        <v>7003.11127456903</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91117.3208119342</v>
+        <v>91803.7046039499</v>
       </c>
       <c r="C26" t="n">
-        <v>65752.6140772958</v>
+        <v>65774.3887536479</v>
       </c>
       <c r="D26" t="n">
-        <v>53161.8151562483</v>
+        <v>55054.1789330902</v>
       </c>
       <c r="E26" t="n">
-        <v>117011.246117673</v>
+        <v>120503.218949187</v>
       </c>
       <c r="F26" t="n">
-        <v>131530.425704813</v>
+        <v>134622.216627939</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>29420.3208119342</v>
+        <v>30106.7046039499</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79282.1265108613</v>
+        <v>79337.0325861101</v>
       </c>
       <c r="C27" t="n">
-        <v>52236.0983099761</v>
+        <v>52689.3195948174</v>
       </c>
       <c r="D27" t="n">
-        <v>39683.9025008725</v>
+        <v>41235.0864756799</v>
       </c>
       <c r="E27" t="n">
-        <v>106419.595034446</v>
+        <v>106721.705431367</v>
       </c>
       <c r="F27" t="n">
-        <v>119530.914551388</v>
+        <v>123488.549650494</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>26686.1265108613</v>
+        <v>26741.0325861101</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>97339.0078251793</v>
+        <v>97900.0938169019</v>
       </c>
       <c r="C28" t="n">
-        <v>71419.1250609852</v>
+        <v>70318.9527660044</v>
       </c>
       <c r="D28" t="n">
-        <v>55352.2324768563</v>
+        <v>58228.4735303916</v>
       </c>
       <c r="E28" t="n">
-        <v>123213.03878342</v>
+        <v>126868.308011601</v>
       </c>
       <c r="F28" t="n">
-        <v>135529.570430072</v>
+        <v>140576.731195003</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>24229.0078251793</v>
+        <v>24790.0938169019</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>92055.9213985198</v>
+        <v>92072.0174642098</v>
       </c>
       <c r="C29" t="n">
-        <v>63980.9168143257</v>
+        <v>62668.5111245821</v>
       </c>
       <c r="D29" t="n">
-        <v>52862.9744567943</v>
+        <v>50516.6486909491</v>
       </c>
       <c r="E29" t="n">
-        <v>118597.29652158</v>
+        <v>121416.413078684</v>
       </c>
       <c r="F29" t="n">
-        <v>134790.479396746</v>
+        <v>137609.437429699</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>30870.9213985198</v>
+        <v>30887.0174642098</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>89148.0953764851</v>
+        <v>88792.5228250693</v>
       </c>
       <c r="C30" t="n">
-        <v>61479.690155215</v>
+        <v>56224.9380042912</v>
       </c>
       <c r="D30" t="n">
-        <v>47011.351515595</v>
+        <v>44220.3461333224</v>
       </c>
       <c r="E30" t="n">
-        <v>115125.39501185</v>
+        <v>117194.79213796</v>
       </c>
       <c r="F30" t="n">
-        <v>129272.882933475</v>
+        <v>135331.134895354</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>25558.0953764851</v>
+        <v>25202.5228250693</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>85768.6166975478</v>
+        <v>84994.1854872062</v>
       </c>
       <c r="C31" t="n">
-        <v>56673.6155102321</v>
+        <v>52372.1418455427</v>
       </c>
       <c r="D31" t="n">
-        <v>43304.9344552433</v>
+        <v>42836.4579791571</v>
       </c>
       <c r="E31" t="n">
-        <v>113465.620001838</v>
+        <v>115582.113964228</v>
       </c>
       <c r="F31" t="n">
-        <v>125429.80165434</v>
+        <v>132654.186729238</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>17867.6166975478</v>
+        <v>17093.1854872062</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>83426.7847091192</v>
+        <v>82929.511981785</v>
       </c>
       <c r="C32" t="n">
-        <v>54797.8333441521</v>
+        <v>52008.8913367392</v>
       </c>
       <c r="D32" t="n">
-        <v>40935.6135667598</v>
+        <v>40021.4920939899</v>
       </c>
       <c r="E32" t="n">
-        <v>112269.628625474</v>
+        <v>112639.086647674</v>
       </c>
       <c r="F32" t="n">
-        <v>128171.675391793</v>
+        <v>133870.629387781</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>12004.7847091192</v>
+        <v>11507.511981785</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>79952.7308485209</v>
+        <v>79782.9992039118</v>
       </c>
       <c r="C33" t="n">
-        <v>49288.6997113141</v>
+        <v>47606.5406271927</v>
       </c>
       <c r="D33" t="n">
-        <v>39452.4151940402</v>
+        <v>31980.0985812665</v>
       </c>
       <c r="E33" t="n">
-        <v>107674.962975135</v>
+        <v>109865.252281131</v>
       </c>
       <c r="F33" t="n">
-        <v>123487.161073282</v>
+        <v>129498.83780958</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>10933.7308485209</v>
+        <v>10763.9992039118</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>76359.0991193623</v>
+        <v>75728.2289725582</v>
       </c>
       <c r="C34" t="n">
-        <v>46951.8621979406</v>
+        <v>43844.3810120646</v>
       </c>
       <c r="D34" t="n">
-        <v>32800.5282015469</v>
+        <v>29199.8291995503</v>
       </c>
       <c r="E34" t="n">
-        <v>106102.684806842</v>
+        <v>105926.622698409</v>
       </c>
       <c r="F34" t="n">
-        <v>118977.607854656</v>
+        <v>124744.844649081</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>17721.0991193623</v>
+        <v>17090.2289725582</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>72641.0653726219</v>
+        <v>72307.9215560416</v>
       </c>
       <c r="C35" t="n">
-        <v>41659.21026588</v>
+        <v>40480.4331442127</v>
       </c>
       <c r="D35" t="n">
-        <v>27578.2276735725</v>
+        <v>21649.326761856</v>
       </c>
       <c r="E35" t="n">
-        <v>101643.278850214</v>
+        <v>103020.340728835</v>
       </c>
       <c r="F35" t="n">
-        <v>119732.954514303</v>
+        <v>126771.126290296</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>21516.0653726219</v>
+        <v>21182.9215560416</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>70783.0414970982</v>
+        <v>69871.8469317438</v>
       </c>
       <c r="C36" t="n">
-        <v>38701.2052368978</v>
+        <v>36738.8854561574</v>
       </c>
       <c r="D36" t="n">
-        <v>25161.6554127903</v>
+        <v>16441.4822196603</v>
       </c>
       <c r="E36" t="n">
-        <v>101491.500855708</v>
+        <v>102611.144592059</v>
       </c>
       <c r="F36" t="n">
-        <v>117630.554249768</v>
+        <v>124797.101514775</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22431.0414970982</v>
+        <v>21519.8469317438</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>67972.0370005509</v>
+        <v>67614.7722604213</v>
       </c>
       <c r="C37" t="n">
-        <v>36696.6159670047</v>
+        <v>34507.5503137388</v>
       </c>
       <c r="D37" t="n">
-        <v>23155.2629880649</v>
+        <v>15549.2357478748</v>
       </c>
       <c r="E37" t="n">
-        <v>99058.8047936951</v>
+        <v>101402.96416495</v>
       </c>
       <c r="F37" t="n">
-        <v>115855.008117309</v>
+        <v>122096.15425359</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>34021.0370005509</v>
+        <v>33663.7722604213</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>90396.1397914819</v>
+        <v>90675.9478382956</v>
       </c>
       <c r="C38" t="n">
-        <v>59001.1786173119</v>
+        <v>56303.2060497625</v>
       </c>
       <c r="D38" t="n">
-        <v>43958.943867035</v>
+        <v>33783.9252313912</v>
       </c>
       <c r="E38" t="n">
-        <v>124318.18526531</v>
+        <v>124175.06467842</v>
       </c>
       <c r="F38" t="n">
-        <v>139805.576072741</v>
+        <v>142657.952026147</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>36666.1397914819</v>
+        <v>36945.9478382956</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>78920.855366615</v>
+        <v>78598.0343052604</v>
       </c>
       <c r="C39" t="n">
-        <v>47343.6588654688</v>
+        <v>43797.0119578196</v>
       </c>
       <c r="D39" t="n">
-        <v>32454.7371821798</v>
+        <v>24545.293540154</v>
       </c>
       <c r="E39" t="n">
-        <v>113509.818249032</v>
+        <v>113198.818062749</v>
       </c>
       <c r="F39" t="n">
-        <v>128238.208203658</v>
+        <v>130396.893501261</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>7079.85536661501</v>
+        <v>6757.03430526039</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>97112.0437126164</v>
+        <v>97095.5517625263</v>
       </c>
       <c r="C40" t="n">
-        <v>64923.4464473845</v>
+        <v>61208.9308279297</v>
       </c>
       <c r="D40" t="n">
-        <v>50009.6595325405</v>
+        <v>43528.5519676847</v>
       </c>
       <c r="E40" t="n">
-        <v>131285.811640524</v>
+        <v>130582.380639928</v>
       </c>
       <c r="F40" t="n">
-        <v>147789.875915538</v>
+        <v>151043.74164879</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>20781.0437126164</v>
+        <v>20764.5517625263</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
+++ b/outcome/appendix/data/Epidemic/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>94169.206539771</v>
+        <v>93697.2651603072</v>
       </c>
       <c r="C2" t="n">
-        <v>86575.8494589335</v>
+        <v>86295.2695858756</v>
       </c>
       <c r="D2" t="n">
-        <v>82646.995715896</v>
+        <v>82386.848118495</v>
       </c>
       <c r="E2" t="n">
-        <v>101539.126796234</v>
+        <v>101165.614062139</v>
       </c>
       <c r="F2" t="n">
-        <v>104552.380265555</v>
+        <v>104368.936761022</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26487.206539771</v>
+        <v>26015.2651603072</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81502.4222950852</v>
+        <v>81377.2549593673</v>
       </c>
       <c r="C3" t="n">
-        <v>73855.0700237609</v>
+        <v>73034.8947051032</v>
       </c>
       <c r="D3" t="n">
-        <v>68755.4057970404</v>
+        <v>67869.9414167318</v>
       </c>
       <c r="E3" t="n">
-        <v>89551.9434258162</v>
+        <v>89895.4661580315</v>
       </c>
       <c r="F3" t="n">
-        <v>95230.7904593854</v>
+        <v>95877.2015995494</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36569.4222950852</v>
+        <v>36444.2549593673</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100341.200424031</v>
+        <v>99663.735184421</v>
       </c>
       <c r="C4" t="n">
-        <v>89937.4238158898</v>
+        <v>91584.0911070704</v>
       </c>
       <c r="D4" t="n">
-        <v>85301.6851800015</v>
+        <v>87235.3050935919</v>
       </c>
       <c r="E4" t="n">
-        <v>109266.509768669</v>
+        <v>108286.189852255</v>
       </c>
       <c r="F4" t="n">
-        <v>114529.499975804</v>
+        <v>111699.631292856</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26914.2004240314</v>
+        <v>26236.735184421</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94292.213860933</v>
+        <v>93810.1672091607</v>
       </c>
       <c r="C5" t="n">
-        <v>82929.9555870029</v>
+        <v>84714.2303745136</v>
       </c>
       <c r="D5" t="n">
-        <v>77468.4117894851</v>
+        <v>77678.1315738597</v>
       </c>
       <c r="E5" t="n">
-        <v>105220.094757428</v>
+        <v>104366.643576462</v>
       </c>
       <c r="F5" t="n">
-        <v>109597.626651589</v>
+        <v>109124.569499084</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8608.21386093297</v>
+        <v>8126.16720916075</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>90914.6926232813</v>
+        <v>91147.5374579115</v>
       </c>
       <c r="C6" t="n">
-        <v>79337.3919127753</v>
+        <v>81552.7691434707</v>
       </c>
       <c r="D6" t="n">
-        <v>72987.7197074019</v>
+        <v>75474.4763119924</v>
       </c>
       <c r="E6" t="n">
-        <v>102275.565127018</v>
+        <v>101686.749493398</v>
       </c>
       <c r="F6" t="n">
-        <v>110196.21897012</v>
+        <v>107788.395387659</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>7529.6926232813</v>
+        <v>7762.53745791155</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87194.3429176357</v>
+        <v>87505.0477078806</v>
       </c>
       <c r="C7" t="n">
-        <v>75274.8640220322</v>
+        <v>75899.9659327145</v>
       </c>
       <c r="D7" t="n">
-        <v>68969.3813006949</v>
+        <v>69104.7510090675</v>
       </c>
       <c r="E7" t="n">
-        <v>99830.0045075614</v>
+        <v>99236.5238395072</v>
       </c>
       <c r="F7" t="n">
-        <v>105754.27190588</v>
+        <v>105024.576809057</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2242.34291763573</v>
+        <v>2553.04770788057</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>84596.0975072202</v>
+        <v>85160.3861940999</v>
       </c>
       <c r="C8" t="n">
-        <v>71584.7956359785</v>
+        <v>73251.2736705855</v>
       </c>
       <c r="D8" t="n">
-        <v>65431.7587436494</v>
+        <v>66411.6356203747</v>
       </c>
       <c r="E8" t="n">
-        <v>98329.1667907056</v>
+        <v>96135.7473181393</v>
       </c>
       <c r="F8" t="n">
-        <v>106921.631262911</v>
+        <v>103715.112791038</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8173.09750722023</v>
+        <v>8737.38619409995</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82090.6662702867</v>
+        <v>81941.051850653</v>
       </c>
       <c r="C9" t="n">
-        <v>68098.5745420131</v>
+        <v>68584.2504679944</v>
       </c>
       <c r="D9" t="n">
-        <v>61474.2441232961</v>
+        <v>60907.3833769565</v>
       </c>
       <c r="E9" t="n">
-        <v>96231.3411560098</v>
+        <v>95367.8435419574</v>
       </c>
       <c r="F9" t="n">
-        <v>102208.547364614</v>
+        <v>101075.53398921</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-1010.33372971325</v>
+        <v>-1159.94814934698</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78088.1972351499</v>
+        <v>77473.6827770587</v>
       </c>
       <c r="C10" t="n">
-        <v>63978.4297663815</v>
+        <v>62565.1404407029</v>
       </c>
       <c r="D10" t="n">
-        <v>55791.5438453358</v>
+        <v>55050.0128236827</v>
       </c>
       <c r="E10" t="n">
-        <v>92603.8602069046</v>
+        <v>92058.3872891522</v>
       </c>
       <c r="F10" t="n">
-        <v>100955.98348955</v>
+        <v>100013.303556282</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2679.19723514988</v>
+        <v>2064.68277705867</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75229.5012204689</v>
+        <v>74391.7212347732</v>
       </c>
       <c r="C11" t="n">
-        <v>60296.9208958873</v>
+        <v>59021.5858695057</v>
       </c>
       <c r="D11" t="n">
-        <v>50715.4208912657</v>
+        <v>49440.0709255898</v>
       </c>
       <c r="E11" t="n">
-        <v>91248.5120511308</v>
+        <v>89081.3625651318</v>
       </c>
       <c r="F11" t="n">
-        <v>98615.8896940065</v>
+        <v>96395.6512992942</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7386.50122046894</v>
+        <v>6548.7212347732</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72482.0658333244</v>
+        <v>71600.4241410029</v>
       </c>
       <c r="C12" t="n">
-        <v>54440.1320229663</v>
+        <v>55846.9031997573</v>
       </c>
       <c r="D12" t="n">
-        <v>48155.4000512546</v>
+        <v>47155.2162392888</v>
       </c>
       <c r="E12" t="n">
-        <v>90043.0631119608</v>
+        <v>85626.4098931422</v>
       </c>
       <c r="F12" t="n">
-        <v>98203.8629235227</v>
+        <v>93347.1196862182</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2842.06583332441</v>
+        <v>1960.42414100292</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70132.7886048567</v>
+        <v>69076.5048106195</v>
       </c>
       <c r="C13" t="n">
-        <v>51228.6891019286</v>
+        <v>51805.089877229</v>
       </c>
       <c r="D13" t="n">
-        <v>44790.3135336736</v>
+        <v>41615.6849803005</v>
       </c>
       <c r="E13" t="n">
-        <v>87675.6901894524</v>
+        <v>85454.7968545395</v>
       </c>
       <c r="F13" t="n">
-        <v>96322.3769038241</v>
+        <v>91114.7980643164</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6035.78860485672</v>
+        <v>4979.50481061952</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92606.3563912145</v>
+        <v>91769.5363592395</v>
       </c>
       <c r="C14" t="n">
-        <v>72221.1487452917</v>
+        <v>74223.5147925542</v>
       </c>
       <c r="D14" t="n">
-        <v>62743.058587124</v>
+        <v>64074.1388191765</v>
       </c>
       <c r="E14" t="n">
-        <v>112158.322489336</v>
+        <v>109065.842061821</v>
       </c>
       <c r="F14" t="n">
-        <v>121381.150601612</v>
+        <v>117423.564707125</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27793.3563912145</v>
+        <v>26956.5363592395</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80979.7685447417</v>
+        <v>79779.3556617333</v>
       </c>
       <c r="C15" t="n">
-        <v>62150.5207417266</v>
+        <v>61131.7259826951</v>
       </c>
       <c r="D15" t="n">
-        <v>52730.4476363366</v>
+        <v>52690.3477543721</v>
       </c>
       <c r="E15" t="n">
-        <v>101999.542605945</v>
+        <v>96593.7330100993</v>
       </c>
       <c r="F15" t="n">
-        <v>110539.539211499</v>
+        <v>106973.00587313</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25554.7685447417</v>
+        <v>24354.3556617333</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99664.8153159879</v>
+        <v>98137.1461899836</v>
       </c>
       <c r="C16" t="n">
-        <v>79285.4306545822</v>
+        <v>80022.5405824678</v>
       </c>
       <c r="D16" t="n">
-        <v>69627.2926292613</v>
+        <v>67042.8751685108</v>
       </c>
       <c r="E16" t="n">
-        <v>120987.046212424</v>
+        <v>115109.62089298</v>
       </c>
       <c r="F16" t="n">
-        <v>131479.831837</v>
+        <v>124847.969807371</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18861.8153159879</v>
+        <v>17334.1461899836</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93912.5510892634</v>
+        <v>92638.463776511</v>
       </c>
       <c r="C17" t="n">
-        <v>74113.8506289322</v>
+        <v>72838.9448037355</v>
       </c>
       <c r="D17" t="n">
-        <v>61302.2933896011</v>
+        <v>60438.7976921127</v>
       </c>
       <c r="E17" t="n">
-        <v>116692.061067415</v>
+        <v>110858.344307543</v>
       </c>
       <c r="F17" t="n">
-        <v>126476.608433394</v>
+        <v>121313.374481702</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13364.5510892634</v>
+        <v>12090.463776511</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90966.7727511277</v>
+        <v>89478.2399346006</v>
       </c>
       <c r="C18" t="n">
-        <v>69814.3210531374</v>
+        <v>69700.2727437459</v>
       </c>
       <c r="D18" t="n">
-        <v>59160.9351810331</v>
+        <v>59399.4967794055</v>
       </c>
       <c r="E18" t="n">
-        <v>113304.48882259</v>
+        <v>108964.808400609</v>
       </c>
       <c r="F18" t="n">
-        <v>126964.252515741</v>
+        <v>121099.10440871</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15723.7727511277</v>
+        <v>14235.2399346006</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87343.7134803147</v>
+        <v>85762.555098738</v>
       </c>
       <c r="C19" t="n">
-        <v>65641.1882812946</v>
+        <v>65415.0534934471</v>
       </c>
       <c r="D19" t="n">
-        <v>53070.2529218728</v>
+        <v>54749.8651722092</v>
       </c>
       <c r="E19" t="n">
-        <v>112422.061098824</v>
+        <v>106273.224604777</v>
       </c>
       <c r="F19" t="n">
-        <v>122484.27462114</v>
+        <v>118308.275708742</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13459.7134803147</v>
+        <v>11878.555098738</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84514.6443866428</v>
+        <v>83285.0403004039</v>
       </c>
       <c r="C20" t="n">
-        <v>61657.4048233399</v>
+        <v>63505.16476858</v>
       </c>
       <c r="D20" t="n">
-        <v>50753.1398218504</v>
+        <v>48397.9991052699</v>
       </c>
       <c r="E20" t="n">
-        <v>108922.661081163</v>
+        <v>103434.047709919</v>
       </c>
       <c r="F20" t="n">
-        <v>121611.134023098</v>
+        <v>117672.090787915</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7866.64438664283</v>
+        <v>6637.04030040387</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81961.5459286717</v>
+        <v>80373.1093157834</v>
       </c>
       <c r="C21" t="n">
-        <v>59116.7260281505</v>
+        <v>58300.639041366</v>
       </c>
       <c r="D21" t="n">
-        <v>45843.3404902397</v>
+        <v>42135.4237414375</v>
       </c>
       <c r="E21" t="n">
-        <v>107779.457158313</v>
+        <v>102870.677736677</v>
       </c>
       <c r="F21" t="n">
-        <v>120108.116956936</v>
+        <v>113715.498668038</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13995.5459286717</v>
+        <v>12407.1093157834</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77531.4638628401</v>
+        <v>76130.4155476807</v>
       </c>
       <c r="C22" t="n">
-        <v>54000.8475105133</v>
+        <v>54403.76940199</v>
       </c>
       <c r="D22" t="n">
-        <v>40371.1553574818</v>
+        <v>33974.2956101364</v>
       </c>
       <c r="E22" t="n">
-        <v>103076.708947828</v>
+        <v>97683.9822561114</v>
       </c>
       <c r="F22" t="n">
-        <v>116379.573479848</v>
+        <v>111114.182814459</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9719.4638628401</v>
+        <v>8318.41554768071</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74078.6854034046</v>
+        <v>73042.9692172477</v>
       </c>
       <c r="C23" t="n">
-        <v>49763.5045626828</v>
+        <v>49446.447314652</v>
       </c>
       <c r="D23" t="n">
-        <v>36635.7855567637</v>
+        <v>34315.5549174296</v>
       </c>
       <c r="E23" t="n">
-        <v>99526.8855234992</v>
+        <v>96049.8544086778</v>
       </c>
       <c r="F23" t="n">
-        <v>115308.55257311</v>
+        <v>110142.06310894</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12687.6854034046</v>
+        <v>11651.9692172477</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71664.092611088</v>
+        <v>70291.7678990695</v>
       </c>
       <c r="C24" t="n">
-        <v>46747.8391881376</v>
+        <v>46717.5955634672</v>
       </c>
       <c r="D24" t="n">
-        <v>36112.7354613216</v>
+        <v>34491.9253428723</v>
       </c>
       <c r="E24" t="n">
-        <v>97645.2934256134</v>
+        <v>93526.5051967359</v>
       </c>
       <c r="F24" t="n">
-        <v>114480.250151071</v>
+        <v>105932.469970768</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9911.092611088</v>
+        <v>8538.76789906953</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>68791.111274569</v>
+        <v>67713.5703077417</v>
       </c>
       <c r="C25" t="n">
-        <v>44007.1417649282</v>
+        <v>42867.9518203189</v>
       </c>
       <c r="D25" t="n">
-        <v>31385.9404506525</v>
+        <v>32225.1800955643</v>
       </c>
       <c r="E25" t="n">
-        <v>95127.4804464312</v>
+        <v>92369.7172924127</v>
       </c>
       <c r="F25" t="n">
-        <v>110955.281841863</v>
+        <v>105882.380893609</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7003.11127456903</v>
+        <v>5925.5703077417</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91803.7046039499</v>
+        <v>90408.6807052656</v>
       </c>
       <c r="C26" t="n">
-        <v>65774.3887536479</v>
+        <v>65609.4273309539</v>
       </c>
       <c r="D26" t="n">
-        <v>55054.1789330902</v>
+        <v>46822.7786045865</v>
       </c>
       <c r="E26" t="n">
-        <v>120503.218949187</v>
+        <v>116176.603736778</v>
       </c>
       <c r="F26" t="n">
-        <v>134622.216627939</v>
+        <v>126482.039548605</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>30106.7046039499</v>
+        <v>28711.6807052656</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79337.0325861101</v>
+        <v>78599.4186776249</v>
       </c>
       <c r="C27" t="n">
-        <v>52689.3195948174</v>
+        <v>52145.7433841234</v>
       </c>
       <c r="D27" t="n">
-        <v>41235.0864756799</v>
+        <v>36646.2185060523</v>
       </c>
       <c r="E27" t="n">
-        <v>106721.705431367</v>
+        <v>103958.08916066</v>
       </c>
       <c r="F27" t="n">
-        <v>123488.549650494</v>
+        <v>116390.908353683</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>26741.0325861101</v>
+        <v>26003.4186776249</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>97900.0938169019</v>
+        <v>97253.8889243581</v>
       </c>
       <c r="C28" t="n">
-        <v>70318.9527660044</v>
+        <v>71602.3220136479</v>
       </c>
       <c r="D28" t="n">
-        <v>58228.4735303916</v>
+        <v>55620.1772945534</v>
       </c>
       <c r="E28" t="n">
-        <v>126868.308011601</v>
+        <v>121938.151087739</v>
       </c>
       <c r="F28" t="n">
-        <v>140576.731195003</v>
+        <v>135415.432575173</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>24790.0938169019</v>
+        <v>24143.8889243581</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>92072.0174642098</v>
+        <v>91776.9576062413</v>
       </c>
       <c r="C29" t="n">
-        <v>62668.5111245821</v>
+        <v>65931.5121417484</v>
       </c>
       <c r="D29" t="n">
-        <v>50516.6486909491</v>
+        <v>44908.2290072984</v>
       </c>
       <c r="E29" t="n">
-        <v>121416.413078684</v>
+        <v>115681.393232848</v>
       </c>
       <c r="F29" t="n">
-        <v>137609.437429699</v>
+        <v>131596.924416579</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>30887.0174642098</v>
+        <v>30591.9576062413</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>88792.5228250693</v>
+        <v>88082.9425920034</v>
       </c>
       <c r="C30" t="n">
-        <v>56224.9380042912</v>
+        <v>60711.1125331854</v>
       </c>
       <c r="D30" t="n">
-        <v>44220.3461333224</v>
+        <v>41788.4484945635</v>
       </c>
       <c r="E30" t="n">
-        <v>117194.79213796</v>
+        <v>113567.613115531</v>
       </c>
       <c r="F30" t="n">
-        <v>135331.134895354</v>
+        <v>131373.347987105</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>25202.5228250693</v>
+        <v>24492.9425920034</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>84994.1854872062</v>
+        <v>84818.1121163959</v>
       </c>
       <c r="C31" t="n">
-        <v>52372.1418455427</v>
+        <v>56974.7351179704</v>
       </c>
       <c r="D31" t="n">
-        <v>42836.4579791571</v>
+        <v>40286.5254321612</v>
       </c>
       <c r="E31" t="n">
-        <v>115582.113964228</v>
+        <v>111015.737869733</v>
       </c>
       <c r="F31" t="n">
-        <v>132654.186729238</v>
+        <v>125078.356899127</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>17093.1854872062</v>
+        <v>16917.1121163959</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>82929.511981785</v>
+        <v>82563.2233071128</v>
       </c>
       <c r="C32" t="n">
-        <v>52008.8913367392</v>
+        <v>54224.734838107</v>
       </c>
       <c r="D32" t="n">
-        <v>40021.4920939899</v>
+        <v>37105.4619654902</v>
       </c>
       <c r="E32" t="n">
-        <v>112639.086647674</v>
+        <v>110799.944554892</v>
       </c>
       <c r="F32" t="n">
-        <v>133870.629387781</v>
+        <v>125462.908927257</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>11507.511981785</v>
+        <v>11141.2233071128</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>79782.9992039118</v>
+        <v>79607.7557549771</v>
       </c>
       <c r="C33" t="n">
-        <v>47606.5406271927</v>
+        <v>51878.2370241907</v>
       </c>
       <c r="D33" t="n">
-        <v>31980.0985812665</v>
+        <v>34177.2217371328</v>
       </c>
       <c r="E33" t="n">
-        <v>109865.252281131</v>
+        <v>106551.137959744</v>
       </c>
       <c r="F33" t="n">
-        <v>129498.83780958</v>
+        <v>122891.571466379</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>10763.9992039118</v>
+        <v>10588.7557549771</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>75728.2289725582</v>
+        <v>75082.3764572099</v>
       </c>
       <c r="C34" t="n">
-        <v>43844.3810120646</v>
+        <v>44222.2206530664</v>
       </c>
       <c r="D34" t="n">
-        <v>29199.8291995503</v>
+        <v>28300.0410984712</v>
       </c>
       <c r="E34" t="n">
-        <v>105926.622698409</v>
+        <v>104503.109026289</v>
       </c>
       <c r="F34" t="n">
-        <v>124744.844649081</v>
+        <v>120660.079318795</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>17090.2289725582</v>
+        <v>16444.3764572099</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>72307.9215560416</v>
+        <v>72333.8593665555</v>
       </c>
       <c r="C35" t="n">
-        <v>40480.4331442127</v>
+        <v>40714.8322744468</v>
       </c>
       <c r="D35" t="n">
-        <v>21649.326761856</v>
+        <v>26501.7935734671</v>
       </c>
       <c r="E35" t="n">
-        <v>103020.340728835</v>
+        <v>101739.672142452</v>
       </c>
       <c r="F35" t="n">
-        <v>126771.126290296</v>
+        <v>119895.502132153</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>21182.9215560416</v>
+        <v>21208.8593665555</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>69871.8469317438</v>
+        <v>69987.2202953226</v>
       </c>
       <c r="C36" t="n">
-        <v>36738.8854561574</v>
+        <v>39712.0019655725</v>
       </c>
       <c r="D36" t="n">
-        <v>16441.4822196603</v>
+        <v>23782.0209564259</v>
       </c>
       <c r="E36" t="n">
-        <v>102611.144592059</v>
+        <v>99573.6542300597</v>
       </c>
       <c r="F36" t="n">
-        <v>124797.101514775</v>
+        <v>114910.667965309</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>21519.8469317438</v>
+        <v>21635.2202953226</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>67614.7722604213</v>
+        <v>67338.0814954225</v>
       </c>
       <c r="C37" t="n">
-        <v>34507.5503137388</v>
+        <v>34504.1226858035</v>
       </c>
       <c r="D37" t="n">
-        <v>15549.2357478748</v>
+        <v>21507.7784524371</v>
       </c>
       <c r="E37" t="n">
-        <v>101402.96416495</v>
+        <v>97081.7384077673</v>
       </c>
       <c r="F37" t="n">
-        <v>122096.15425359</v>
+        <v>116361.723447662</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>33663.7722604213</v>
+        <v>33387.0814954225</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>90675.9478382956</v>
+        <v>89966.1808380493</v>
       </c>
       <c r="C38" t="n">
-        <v>56303.2060497625</v>
+        <v>57280.1032027045</v>
       </c>
       <c r="D38" t="n">
-        <v>33783.9252313912</v>
+        <v>41504.1038846977</v>
       </c>
       <c r="E38" t="n">
-        <v>124175.06467842</v>
+        <v>121328.616067055</v>
       </c>
       <c r="F38" t="n">
-        <v>142657.952026147</v>
+        <v>135900.000875582</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>36945.9478382956</v>
+        <v>36236.1808380493</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>78598.0343052604</v>
+        <v>77415.1980253574</v>
       </c>
       <c r="C39" t="n">
-        <v>43797.0119578196</v>
+        <v>43170.8255278554</v>
       </c>
       <c r="D39" t="n">
-        <v>24545.293540154</v>
+        <v>27375.812300636</v>
       </c>
       <c r="E39" t="n">
-        <v>113198.818062749</v>
+        <v>108751.252098411</v>
       </c>
       <c r="F39" t="n">
-        <v>130396.893501261</v>
+        <v>127047.854164887</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>6757.03430526039</v>
+        <v>5574.1980253574</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>97095.5517625263</v>
+        <v>95911.2167193544</v>
       </c>
       <c r="C40" t="n">
-        <v>61208.9308279297</v>
+        <v>60777.8014929914</v>
       </c>
       <c r="D40" t="n">
-        <v>43528.5519676847</v>
+        <v>45286.4152194862</v>
       </c>
       <c r="E40" t="n">
-        <v>130582.380639928</v>
+        <v>129794.167619622</v>
       </c>
       <c r="F40" t="n">
-        <v>151043.74164879</v>
+        <v>147811.583374455</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>20764.5517625263</v>
+        <v>19580.2167193544</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
